--- a/Barnes/analysis-runtime-barnes_only.xlsx
+++ b/Barnes/analysis-runtime-barnes_only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herbi\Documents\Uni\numerik\Barnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30412FF-32DB-4225-8985-BCCE3858A213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD993B83-ADA4-4D19-AFB4-27B655D9402C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mittelwerte" sheetId="4" r:id="rId1"/>
@@ -11444,7 +11444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090833FF-6F94-4F74-A08A-01D9EE2EF5A2}">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="W67" sqref="W67"/>
     </sheetView>
   </sheetViews>
